--- a/medicine/Enfance/Patronage_laïque_de_Lorient/Patronage_laïque_de_Lorient.xlsx
+++ b/medicine/Enfance/Patronage_laïque_de_Lorient/Patronage_laïque_de_Lorient.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Patronage_la%C3%AFque_de_Lorient</t>
+          <t>Patronage_laïque_de_Lorient</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Patronage laïque de Lorient a été créé en 1926 par Emmanuel Svob, alors maire de Lorient. Il établit dès le mois de mai 1926 les premières colonies de vacances pour les enfants de Lorient au château de Soye (situé dans la commune voisine de Plœmeur) acheté pour les besoins de son développement.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Patronage_la%C3%AFque_de_Lorient</t>
+          <t>Patronage_laïque_de_Lorient</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À l'époque, le PLL avait pour objet : « Soutenir moralement, matériellement et pécuniairement tous les enfants fréquentant les écoles publiques de Lorient, à tous les degrés, et toutes les institutions scolaires et post-scolaires, cantines, garderies, colonie de vacances, école pour anormaux, musique, théâtre, cinéma, etc. il pourrait lui-même créer de semblables institutions s’il n’en existait pas… l’Association a également pour but, la pratique de l’éducation physique et des sports ».
 Aujourd'hui, l'association propose des activités qui visent toujours l'épanouissement individuel et l'engagement collectif au sein d'une société laïque et solidaire. Elle promeut la valeur éducative du temps libre et pour ce faire s'est organisée autour de deux secteurs d'activités :
